--- a/Fusion/ETL/Customers/Common/HCM/WorkStructuresMigration/WorkStructure_IFTY_V1_FUSN_R7/data-in/FusionHCMWorkStructures_R7.xlsx
+++ b/Fusion/ETL/Customers/Common/HCM/WorkStructuresMigration/WorkStructure_IFTY_V1_FUSN_R7/data-in/FusionHCMWorkStructures_R7.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="420" windowWidth="15600" windowHeight="6690"/>
+    <workbookView xWindow="480" yWindow="420" windowWidth="15600" windowHeight="6690" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Grades" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,11 @@
     <sheet name="Department" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="159">
   <si>
     <t>Effective Start Date</t>
   </si>
@@ -495,51 +494,6 @@
   </si>
   <si>
     <t>Standard Working Hours Frequency</t>
-  </si>
-  <si>
-    <t>1/1/00</t>
-  </si>
-  <si>
-    <t>Common Set</t>
-  </si>
-  <si>
-    <t>USA (ZELTIQ Inc) LDG</t>
-  </si>
-  <si>
-    <t>ZLTQ SAL GRT</t>
-  </si>
-  <si>
-    <t>Salary</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>Annual</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>* 25,850</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Active </t>
-  </si>
-  <si>
-    <t>US-SF Bay Area-6</t>
-  </si>
-  <si>
-    <t>USD</t>
-  </si>
-  <si>
-    <t>* 48,070</t>
-  </si>
-  <si>
-    <t>* 36,960</t>
-  </si>
-  <si>
-    <t>US-SFBA-6</t>
   </si>
 </sst>
 </file>
@@ -988,7 +942,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="P2" sqref="A2:P6"/>
     </sheetView>
   </sheetViews>
@@ -1663,7 +1617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AZ1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
